--- a/EVAL_BDD_Clement/Hotels.xlsx.xlsx
+++ b/EVAL_BDD_Clement/Hotels.xlsx.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="128">
   <si>
     <t>John</t>
   </si>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t>Identifiant</t>
-  </si>
-  <si>
-    <t>INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES ;</t>
   </si>
 </sst>
 </file>
@@ -894,9 +891,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1242,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1253,7 @@
     <col min="5" max="5" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1265,128 +1263,136 @@
       <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="str">
+        <f>"INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES("&amp;A2&amp;", E17"""&amp;B2&amp;""","&amp;C2&amp;");"</f>
+        <v>INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES(1, E17"La Montagne",2500);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2">
         <v>2500</v>
       </c>
-      <c r="E2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="e">
-        <f>(A3,B3,C3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="str">
+        <f t="shared" ref="E2:E9" si="0">"INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES("&amp;A3&amp;", E17"""&amp;B3&amp;""","&amp;C3&amp;");"</f>
+        <v>INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES(2, E17"Le Sud",200);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
-      <c r="E3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" t="e">
-        <f>(A4,B4,C4)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES(3, E17"La Plage",10);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" t="e">
-        <f>(A5,B5,C5)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES(4, E17"Alpe d Huez",1860);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5">
         <v>1860</v>
       </c>
-      <c r="E5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" t="e">
-        <f>(A6,B6,C6)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES(5, E17"Areches",1200);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
       <c r="C6">
         <v>1200</v>
       </c>
-      <c r="E6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" t="e">
-        <f>(A7,B7,C7)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES(6, E17"Beaufort",1200);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7">
         <v>1200</v>
       </c>
-      <c r="E7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" t="e">
-        <f>(A8,B8,C8)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES(7, E17"Aussois",1500);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
       <c r="C8">
         <v>1500</v>
       </c>
-      <c r="E8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" t="e">
-        <f>(A9,B9,C9)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES(8, E17"Avoriaz",1800);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>62</v>
       </c>
       <c r="C9">
         <v>1800</v>
       </c>
-      <c r="E9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" t="e">
-        <f>(A10,B10,C10)</f>
-        <v>#VALUE!</v>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO station ('Station','nomStation', 'altitudeStation',) VALUES(, E17"",);</v>
       </c>
     </row>
   </sheetData>
